--- a/quanlysinhvien/danhsachhocphan/lophocphan/96129_dsSV.xlsx
+++ b/quanlysinhvien/danhsachhocphan/lophocphan/96129_dsSV.xlsx
@@ -12,36 +12,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
-    <t>Mã SV</t>
+    <t>Mã sinh viên</t>
   </si>
   <si>
-    <t>Họ tên</t>
+    <t>Họ tên</t>
   </si>
   <si>
-    <t>Khóa</t>
+    <t>Khóa</t>
   </si>
   <si>
-    <t>Tên Lớp</t>
+    <t>Tên lớp</t>
   </si>
   <si>
-    <t>Ngày sinh</t>
+    <t>Ngày sinh</t>
   </si>
   <si>
-    <t>Giới tính</t>
+    <t>Giới tính</t>
   </si>
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>SĐT</t>
+    <t>Số ĐT</t>
   </si>
   <si>
-    <t>Địa chỉ</t>
+    <t>Địa chỉ</t>
   </si>
   <si>
-    <t>Điểm TB</t>
+    <t>Điểm TB</t>
+  </si>
+  <si>
+    <t>SV002</t>
+  </si>
+  <si>
+    <t>Nguyễn Cao Huy</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>04-11-1998</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>huync@gmail.com</t>
+  </si>
+  <si>
+    <t>0123456789</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
   </si>
 </sst>
 </file>
@@ -59,7 +86,7 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="12.0"/>
+      <sz val="11.0"/>
       <b val="true"/>
     </font>
   </fonts>
@@ -81,11 +108,11 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -94,7 +121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="B1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>

--- a/quanlysinhvien/danhsachhocphan/lophocphan/96129_dsSV.xlsx
+++ b/quanlysinhvien/danhsachhocphan/lophocphan/96129_dsSV.xlsx
@@ -12,63 +12,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>Mã sinh viên</t>
+    <t>Mã SV</t>
   </si>
   <si>
-    <t>Họ tên</t>
+    <t>Họ tên</t>
   </si>
   <si>
-    <t>Khóa</t>
+    <t>Khóa</t>
   </si>
   <si>
-    <t>Tên lớp</t>
+    <t>Tên Lớp</t>
   </si>
   <si>
-    <t>Ngày sinh</t>
+    <t>Ngày sinh</t>
   </si>
   <si>
-    <t>Giới tính</t>
+    <t>Giới tính</t>
   </si>
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>Số ĐT</t>
+    <t>SĐT</t>
   </si>
   <si>
-    <t>Địa chỉ</t>
+    <t>Địa chỉ</t>
   </si>
   <si>
-    <t>Điểm TB</t>
-  </si>
-  <si>
-    <t>SV002</t>
-  </si>
-  <si>
-    <t>Nguyễn Cao Huy</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>04-11-1998</t>
-  </si>
-  <si>
-    <t>Nam</t>
-  </si>
-  <si>
-    <t>huync@gmail.com</t>
-  </si>
-  <si>
-    <t>0123456789</t>
-  </si>
-  <si>
-    <t>Hà Nội</t>
+    <t>Điểm TB</t>
   </si>
 </sst>
 </file>
@@ -86,7 +59,7 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <sz val="12.0"/>
       <b val="true"/>
     </font>
   </fonts>
@@ -108,11 +81,11 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -121,7 +94,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="B1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
